--- a/biology/Médecine/Transgene_(entreprise)/Transgene_(entreprise).xlsx
+++ b/biology/Médecine/Transgene_(entreprise)/Transgene_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Transgene est une entreprise française biopharmaceutique alsacienne dont le siège se situe à Illkirch-Graffenstaden. Elle est spécialisée dans la conception et le développement d'immunothérapies (vaccins thérapeutiques et virus oncolytiques) pour le traitement des cancers. La société assure la recherche, les essais précliniques et les essais cliniques. Elle a comme objectif de nouer des partenariats commerciaux pour ces cinq produits, qui sont actuellement en essais cliniques de phase I, phase II. 
@@ -513,11 +525,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Transgene a été créée en 1979 sous l'impulsion de deux biologistes, Pierre Chambon et Philippe Kourilsky. Robert Lattès, alors directeur de la prospective technologique à la banque Paribas, a été son président-fondateur jusqu'en 1985.
 À la fin des années 1990, Transgene fait partie avec sa compatriote Genset des sociétés acquérant une forte capitalisation boursière, avant que celles-ci chutent avec la fin de la bulle internet.
-Philippe Archinard dirige la société de 2005 à 2020 et investit massivement dans le vaccin thérapeutique contre le cancer à partir de 2016. Archinard quitte la société en 2020 pour diriger la recherche du groupe Mérieux, principal actionnaire de Transgene[3]. Hedi Ben Brahim est nommé PDG de la société le 1er janvier 2021[4].
+Philippe Archinard dirige la société de 2005 à 2020 et investit massivement dans le vaccin thérapeutique contre le cancer à partir de 2016. Archinard quitte la société en 2020 pour diriger la recherche du groupe Mérieux, principal actionnaire de Transgene. Hedi Ben Brahim est nommé PDG de la société le 1er janvier 2021.
 </t>
         </is>
       </c>
@@ -546,15 +560,17 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2 types de produits toujours en cours de tests concernent les vaccinations :
-Les virus oncolytiques, qui se reproduisent préférentiellement dans les cellules malignes ; ces virus sont testés sur la plateforme Invir:IO[5].
-Un nouveau candidat vaccin, BT-001, a été développé avec la société BioInvent ; une étude de phase I-IIa est en cours. Ce vaccin comporte le facteur stimulant les colonies de granulocytes et de macrophages (GM-CSF) ainsi qu'un anticorps anti-CTLA4. Une étude de phase I/IIa est lancée fin 2020[6].
+Les virus oncolytiques, qui se reproduisent préférentiellement dans les cellules malignes ; ces virus sont testés sur la plateforme Invir:IO.
+Un nouveau candidat vaccin, BT-001, a été développé avec la société BioInvent ; une étude de phase I-IIa est en cours. Ce vaccin comporte le facteur stimulant les colonies de granulocytes et de macrophages (GM-CSF) ainsi qu'un anticorps anti-CTLA4. Une étude de phase I/IIa est lancée fin 2020.
 Le TG6002 : conçu pour exprimer une enzyme recombinante dans les cellules tumorales capable de convertir le 5-FC en 5-F, un agent de chimiothérapie. L'expression de cette enzyme est permise par l'ajout du gène FCU1 dans l'ADN viral de TG6002.
-Les vaccins thérapeutiques[7].
-TG4001, en combinaison avec l'Avélumab (Bavencio) de Merck[5] est un candidat vaccin (contre les cancers issus du papillomavirus, à savoir les cancers du col de l'utérus, de l'anus, de la vulve, du vagin et du pénis)[8] qui est en phase II (2021).
-Un candidat vaccin, TG4050, est testé en phase I contre le cancer des voies aérodigestives supérieures (ou cancer de la tête et du cou) à partir de début 2021[3]. Ce vaccin est aussi évalué pour une utilisation contre le cancer de l'ovaire. La personnalisation de ce vaccin repose sur des algorithmes de prédiction pour sélectionner 30 gènes qui provoquent une réponse immunitaire sur les cellules cancéreuses sans avoir d'effet sur les cellules saines[3].</t>
+Les vaccins thérapeutiques.
+TG4001, en combinaison avec l'Avélumab (Bavencio) de Merck est un candidat vaccin (contre les cancers issus du papillomavirus, à savoir les cancers du col de l'utérus, de l'anus, de la vulve, du vagin et du pénis) qui est en phase II (2021).
+Un candidat vaccin, TG4050, est testé en phase I contre le cancer des voies aérodigestives supérieures (ou cancer de la tête et du cou) à partir de début 2021. Ce vaccin est aussi évalué pour une utilisation contre le cancer de l'ovaire. La personnalisation de ce vaccin repose sur des algorithmes de prédiction pour sélectionner 30 gènes qui provoquent une réponse immunitaire sur les cellules cancéreuses sans avoir d'effet sur les cellules saines.</t>
         </is>
       </c>
     </row>
